--- a/Resources/Data/Excel/input/XYJ/SmartKG_Xiyouji.xlsx
+++ b/Resources/Data/Excel/input/XYJ/SmartKG_Xiyouji.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="505">
   <si>
     <t>实体id</t>
   </si>
@@ -227,7 +227,7 @@
     <t>妖怪</t>
   </si>
   <si>
-    <t>黄眉老祖</t>
+    <t>黄眉老祖、黄眉童子</t>
   </si>
   <si>
     <t>童子</t>
@@ -1250,6 +1250,24 @@
     <t>木吒</t>
   </si>
   <si>
+    <t>4cbb07aa-8465-57cc-8dbe-778fd3f7d588</t>
+  </si>
+  <si>
+    <t>卯日星官</t>
+  </si>
+  <si>
+    <t>9d4835b3-7d77-51a9-84fc-3e4d41380e12</t>
+  </si>
+  <si>
+    <t>毗蓝婆菩萨</t>
+  </si>
+  <si>
+    <t>8dc0f3bd-6603-581a-91d2-1a35df2c6a13</t>
+  </si>
+  <si>
+    <t>孔雀大明王菩萨</t>
+  </si>
+  <si>
     <t>97275f5a-1f26-5dfd-ac91-bea9c4e1e86a</t>
   </si>
   <si>
@@ -1262,6 +1280,24 @@
     <t>玉皇大帝</t>
   </si>
   <si>
+    <t>b3dd68aa-3452-5ae0-87d5-056b73c5e243</t>
+  </si>
+  <si>
+    <t>弥勒佛</t>
+  </si>
+  <si>
+    <t>7f5ef517-ed30-5633-a99b-8935b4a6f5ed</t>
+  </si>
+  <si>
+    <t>二郎神</t>
+  </si>
+  <si>
+    <t>杨戬、杨二郎</t>
+  </si>
+  <si>
+    <t>灌江口</t>
+  </si>
+  <si>
     <t>6f9a98d2-d1a9-563b-93c7-43adec3dac8c</t>
   </si>
   <si>
@@ -1367,6 +1403,12 @@
     <t>祈雨成功</t>
   </si>
   <si>
+    <t>fc9a75dd-c761-516a-9c5b-c661823230e1</t>
+  </si>
+  <si>
+    <t>天竺公主</t>
+  </si>
+  <si>
     <t>8622ed53-7ffd-5ea8-9069-461b5497980f</t>
   </si>
   <si>
@@ -1421,6 +1463,9 @@
     <t>万圣集团</t>
   </si>
   <si>
+    <t>14eeca50-7a2c-5db9-8e63-27b0c9e8f5c6</t>
+  </si>
+  <si>
     <t>关系类型</t>
   </si>
   <si>
@@ -1448,6 +1493,9 @@
     <t>兄弟</t>
   </si>
   <si>
+    <t>父女</t>
+  </si>
+  <si>
     <t>主奴</t>
   </si>
   <si>
@@ -1461,6 +1509,27 @@
   </si>
   <si>
     <t>朋友</t>
+  </si>
+  <si>
+    <t>劫持</t>
+  </si>
+  <si>
+    <t>得罪</t>
+  </si>
+  <si>
+    <t>收服</t>
+  </si>
+  <si>
+    <t>杀死</t>
+  </si>
+  <si>
+    <t>冒充</t>
+  </si>
+  <si>
+    <t>打伤</t>
+  </si>
+  <si>
+    <t>师徒</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5650,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5667,7 +5736,7 @@
         <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5678,59 +5747,41 @@
         <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" t="s">
-        <v>33</v>
-      </c>
-      <c r="J92" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C93" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C94" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E94" t="s">
         <v>31</v>
@@ -5741,62 +5792,80 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C95" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
+        <v>427</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" t="s">
         <v>430</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C97" t="s">
         <v>431</v>
       </c>
-      <c r="C96" t="s">
-        <v>419</v>
-      </c>
-      <c r="E96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
         <v>432</v>
       </c>
-      <c r="B97" t="s">
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" t="s">
         <v>433</v>
       </c>
-      <c r="C97" t="s">
-        <v>419</v>
-      </c>
-      <c r="E97" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>434</v>
       </c>
@@ -5804,7 +5873,7 @@
         <v>435</v>
       </c>
       <c r="C98" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E98" t="s">
         <v>31</v>
@@ -5816,121 +5885,115 @@
         <v>33</v>
       </c>
       <c r="H98" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
+        <v>437</v>
+      </c>
+      <c r="B99" t="s">
+        <v>438</v>
+      </c>
+      <c r="C99" t="s">
+        <v>431</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" t="s">
+        <v>431</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" t="s">
+        <v>443</v>
+      </c>
+      <c r="C101" t="s">
+        <v>431</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>444</v>
+      </c>
+      <c r="B102" t="s">
+        <v>445</v>
+      </c>
+      <c r="C102" t="s">
+        <v>431</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>446</v>
+      </c>
+      <c r="B103" t="s">
+        <v>447</v>
+      </c>
+      <c r="C103" t="s">
+        <v>431</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" t="s">
+        <v>132</v>
+      </c>
+      <c r="G103" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" t="s">
         <v>436</v>
       </c>
-      <c r="B99" t="s">
-        <v>437</v>
-      </c>
-      <c r="C99" t="s">
-        <v>419</v>
-      </c>
-      <c r="E99" t="s">
-        <v>31</v>
-      </c>
-      <c r="F99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" t="s">
-        <v>439</v>
-      </c>
-      <c r="C100" t="s">
-        <v>419</v>
-      </c>
-      <c r="E100" t="s">
-        <v>31</v>
-      </c>
-      <c r="F100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>440</v>
-      </c>
-      <c r="B101" t="s">
-        <v>441</v>
-      </c>
-      <c r="C101" t="s">
-        <v>419</v>
-      </c>
-      <c r="E101" t="s">
-        <v>31</v>
-      </c>
-      <c r="F101" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>443</v>
-      </c>
-      <c r="B102" t="s">
-        <v>444</v>
-      </c>
-      <c r="C102" t="s">
-        <v>419</v>
-      </c>
-      <c r="E102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>445</v>
-      </c>
-      <c r="B103" t="s">
-        <v>446</v>
-      </c>
-      <c r="C103" t="s">
-        <v>419</v>
-      </c>
-      <c r="E103" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" t="s">
-        <v>32</v>
-      </c>
-      <c r="G103" t="s">
-        <v>33</v>
-      </c>
-      <c r="H103" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B104" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E104" t="s">
         <v>31</v>
@@ -5938,14 +6001,8 @@
       <c r="F104" t="s">
         <v>32</v>
       </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>450</v>
       </c>
@@ -5953,7 +6010,7 @@
         <v>451</v>
       </c>
       <c r="C105" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E105" t="s">
         <v>31</v>
@@ -5961,14 +6018,8 @@
       <c r="F105" t="s">
         <v>32</v>
       </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>452</v>
       </c>
@@ -5976,67 +6027,91 @@
         <v>453</v>
       </c>
       <c r="C106" t="s">
+        <v>431</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s">
         <v>454</v>
       </c>
-      <c r="E106" t="s">
-        <v>33</v>
-      </c>
-      <c r="F106" t="s">
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>456</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>431</v>
+      </c>
+      <c r="E107" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
         <v>457</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s">
         <v>454</v>
       </c>
-      <c r="E107" t="s">
-        <v>33</v>
-      </c>
-      <c r="F107" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>458</v>
-      </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>459</v>
       </c>
-      <c r="C108" t="s">
-        <v>454</v>
-      </c>
-      <c r="E108" t="s">
-        <v>33</v>
-      </c>
-      <c r="F108" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>460</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>431</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s">
         <v>461</v>
       </c>
-      <c r="C109" t="s">
-        <v>454</v>
-      </c>
-      <c r="E109" t="s">
-        <v>33</v>
-      </c>
-      <c r="F109" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>462</v>
       </c>
@@ -6044,16 +6119,16 @@
         <v>463</v>
       </c>
       <c r="C110" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>464</v>
       </c>
@@ -6061,16 +6136,22 @@
         <v>465</v>
       </c>
       <c r="C111" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>466</v>
       </c>
@@ -6078,13 +6159,132 @@
         <v>467</v>
       </c>
       <c r="C112" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" t="s">
+        <v>471</v>
+      </c>
+      <c r="C113" t="s">
+        <v>468</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>472</v>
+      </c>
+      <c r="B114" t="s">
+        <v>473</v>
+      </c>
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>474</v>
+      </c>
+      <c r="B115" t="s">
+        <v>475</v>
+      </c>
+      <c r="C115" t="s">
+        <v>468</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>476</v>
+      </c>
+      <c r="B116" t="s">
+        <v>477</v>
+      </c>
+      <c r="C116" t="s">
+        <v>468</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" t="s">
+        <v>479</v>
+      </c>
+      <c r="C117" t="s">
+        <v>468</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>480</v>
+      </c>
+      <c r="B118" t="s">
+        <v>481</v>
+      </c>
+      <c r="C118" t="s">
+        <v>468</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>482</v>
+      </c>
+      <c r="B119" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119" t="s">
+        <v>468</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6102,18 +6302,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -6124,7 +6324,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -6135,7 +6335,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -6146,7 +6346,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -6157,10 +6357,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
         <v>472</v>
-      </c>
-      <c r="B6" t="s">
-        <v>458</v>
       </c>
       <c r="C6" t="s">
         <v>350</v>
@@ -6168,10 +6368,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
         <v>472</v>
-      </c>
-      <c r="B7" t="s">
-        <v>458</v>
       </c>
       <c r="C7" t="s">
         <v>352</v>
@@ -6179,10 +6379,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8" t="s">
         <v>472</v>
-      </c>
-      <c r="B8" t="s">
-        <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>354</v>
@@ -6190,10 +6390,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" t="s">
         <v>472</v>
-      </c>
-      <c r="B9" t="s">
-        <v>458</v>
       </c>
       <c r="C9" t="s">
         <v>356</v>
@@ -6201,7 +6401,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>283</v>
@@ -6212,7 +6412,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
         <v>283</v>
@@ -6223,7 +6423,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
         <v>283</v>
@@ -6234,7 +6434,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>283</v>
@@ -6245,7 +6445,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>283</v>
@@ -6256,7 +6456,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>283</v>
@@ -6267,7 +6467,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>223</v>
@@ -6278,7 +6478,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>346</v>
@@ -6289,7 +6489,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>346</v>
@@ -6300,7 +6500,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -6311,7 +6511,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>316</v>
@@ -6322,10 +6522,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -6333,10 +6533,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C22" t="s">
         <v>211</v>
@@ -6344,10 +6544,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
         <v>217</v>
@@ -6355,7 +6555,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -6366,10 +6566,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C25" t="s">
         <v>333</v>
@@ -6377,10 +6577,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C26" t="s">
         <v>336</v>
@@ -6388,10 +6588,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
         <v>358</v>
@@ -6399,18 +6599,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>301</v>
@@ -6421,7 +6621,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B30" t="s">
         <v>301</v>
@@ -6432,32 +6632,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B31" t="s">
         <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
         <v>271</v>
@@ -6465,51 +6665,51 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B35" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B38" t="s">
         <v>401</v>
@@ -6520,7 +6720,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B39" t="s">
         <v>295</v>
@@ -6531,7 +6731,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B40" t="s">
         <v>310</v>
@@ -6542,7 +6742,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B41" t="s">
         <v>310</v>
@@ -6553,7 +6753,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B42" t="s">
         <v>372</v>
@@ -6564,7 +6764,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B43" t="s">
         <v>305</v>
@@ -6575,7 +6775,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B44" t="s">
         <v>405</v>
@@ -6586,40 +6786,40 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B45" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B46" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B48" t="s">
         <v>301</v>
@@ -6630,7 +6830,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B49" t="s">
         <v>236</v>
@@ -6641,7 +6841,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B50" t="s">
         <v>230</v>
@@ -6652,7 +6852,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B51" t="s">
         <v>230</v>
@@ -6663,7 +6863,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B52" t="s">
         <v>310</v>
@@ -6674,10 +6874,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B53" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
         <v>134</v>
@@ -6685,7 +6885,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B54" t="s">
         <v>395</v>
@@ -6696,7 +6896,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
         <v>385</v>
@@ -6707,7 +6907,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s">
         <v>387</v>
@@ -6718,7 +6918,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s">
         <v>389</v>
@@ -6729,7 +6929,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s">
         <v>393</v>
@@ -6740,7 +6940,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s">
         <v>387</v>
@@ -6751,7 +6951,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B60" t="s">
         <v>385</v>
@@ -6762,7 +6962,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s">
         <v>383</v>
@@ -6773,7 +6973,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s">
         <v>383</v>
@@ -6784,7 +6984,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s">
         <v>383</v>
@@ -6795,7 +6995,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s">
         <v>385</v>
@@ -6806,7 +7006,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s">
         <v>385</v>
@@ -6817,7 +7017,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s">
         <v>397</v>
@@ -6828,7 +7028,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s">
         <v>190</v>
@@ -6839,10 +7039,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C68" t="s">
         <v>393</v>
@@ -6850,10 +7050,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C69" t="s">
         <v>395</v>
@@ -6861,10 +7061,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C70" t="s">
         <v>397</v>
@@ -6872,10 +7072,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C71" t="s">
         <v>385</v>
@@ -6883,10 +7083,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C72" t="s">
         <v>401</v>
@@ -6894,21 +7094,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C74" t="s">
         <v>405</v>
@@ -6916,7 +7116,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s">
         <v>393</v>
@@ -6927,7 +7127,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s">
         <v>393</v>
@@ -6938,7 +7138,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s">
         <v>393</v>
@@ -6949,7 +7149,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
         <v>393</v>
@@ -6960,7 +7160,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s">
         <v>385</v>
@@ -6971,10 +7171,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
         <v>407</v>
@@ -6982,10 +7182,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C81" t="s">
         <v>409</v>
@@ -6993,7 +7193,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s">
         <v>409</v>
@@ -7004,183 +7204,183 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s">
         <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B84" t="s">
         <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s">
         <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s">
         <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s">
         <v>230</v>
       </c>
       <c r="C88" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s">
         <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B90" t="s">
         <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B94" t="s">
         <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B95" t="s">
         <v>262</v>
       </c>
       <c r="C95" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B96" t="s">
         <v>305</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B97" t="s">
         <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s">
         <v>372</v>
       </c>
       <c r="C98" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s">
         <v>152</v>
@@ -7191,7 +7391,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B100" t="s">
         <v>152</v>
@@ -7202,7 +7402,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s">
         <v>401</v>
@@ -7213,7 +7413,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B102" t="s">
         <v>403</v>
@@ -7224,7 +7424,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B103" t="s">
         <v>314</v>
@@ -7235,7 +7435,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s">
         <v>314</v>
@@ -7246,7 +7446,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -7257,7 +7457,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -7268,35 +7468,409 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B108" t="s">
         <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B109" t="s">
         <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>464</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>498</v>
+      </c>
+      <c r="B110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>493</v>
+      </c>
+      <c r="B111" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>493</v>
+      </c>
+      <c r="B112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>491</v>
+      </c>
+      <c r="B113" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>490</v>
+      </c>
+      <c r="B114" t="s">
+        <v>415</v>
+      </c>
+      <c r="C114" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s">
+        <v>429</v>
+      </c>
+      <c r="C115" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>490</v>
+      </c>
+      <c r="B116" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>500</v>
+      </c>
+      <c r="B117" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118" t="s">
+        <v>411</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>500</v>
+      </c>
+      <c r="B119" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>492</v>
+      </c>
+      <c r="B120" t="s">
+        <v>448</v>
+      </c>
+      <c r="C120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>494</v>
+      </c>
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>494</v>
+      </c>
+      <c r="B122" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>494</v>
+      </c>
+      <c r="B123" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>494</v>
+      </c>
+      <c r="B124" t="s">
+        <v>327</v>
+      </c>
+      <c r="C124" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>494</v>
+      </c>
+      <c r="B125" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>497</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>489</v>
+      </c>
+      <c r="B127" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>499</v>
+      </c>
+      <c r="B128" t="s">
+        <v>459</v>
+      </c>
+      <c r="C128" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>502</v>
+      </c>
+      <c r="B129" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>486</v>
+      </c>
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>502</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>486</v>
+      </c>
+      <c r="B132" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>499</v>
+      </c>
+      <c r="B133" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>486</v>
+      </c>
+      <c r="B134" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>486</v>
+      </c>
+      <c r="B135" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>486</v>
+      </c>
+      <c r="B136" t="s">
+        <v>419</v>
+      </c>
+      <c r="C136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>499</v>
+      </c>
+      <c r="B137" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>503</v>
+      </c>
+      <c r="B138" t="s">
+        <v>423</v>
+      </c>
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>496</v>
+      </c>
+      <c r="B139" t="s">
+        <v>419</v>
+      </c>
+      <c r="C139" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>497</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>504</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>504</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>504</v>
+      </c>
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
